--- a/data/Final_data_for_clustering.xlsx
+++ b/data/Final_data_for_clustering.xlsx
@@ -47037,19 +47037,19 @@
       <c r="A622" t="inlineStr"/>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Anatomie et physiologie humaines</t>
+          <t>LECTURE NOTES IN ENGLISH FOR COMPUTING</t>
         </is>
       </c>
       <c r="C622" t="inlineStr"/>
       <c r="D622" t="inlineStr">
         <is>
-          <t>611.9/MAR/2</t>
+          <t>004 BEL/10</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr">
         <is>
-          <t>anatomie et physiologie humaines</t>
+          <t>lecture notes in english for computing</t>
         </is>
       </c>
       <c r="G622" t="inlineStr">
@@ -47058,7 +47058,7 @@
         </is>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -47067,7 +47067,7 @@
         <v>0</v>
       </c>
       <c r="K622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L622" t="n">
         <v>0</v>
@@ -47086,12 +47086,12 @@
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>004</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Anatomie</t>
+          <t>Informatique générale</t>
         </is>
       </c>
       <c r="S622" t="inlineStr"/>
@@ -47173,19 +47173,19 @@
       <c r="A624" t="inlineStr"/>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Big Data Analytics with Applications in Insider Threat Detection</t>
+          <t>Ant Colony Optimization</t>
         </is>
       </c>
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>005.8 PAR/1</t>
+          <t>005.1.16.DOR/1</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr">
         <is>
-          <t>big data analytics with applications in insider threat detection</t>
+          <t>ant colony optimization</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
@@ -47203,13 +47203,13 @@
         <v>0</v>
       </c>
       <c r="K624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L624" t="n">
         <v>0</v>
       </c>
       <c r="M624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N624" t="n">
         <v>1</v>
@@ -47241,19 +47241,19 @@
       <c r="A625" t="inlineStr"/>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Eléments de la théorie des probabilités T.1</t>
+          <t>Algebre 1 : rappels de cours et exercices avec solutions</t>
         </is>
       </c>
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>519.2 BOU/16/T1</t>
+          <t>512/BEN/6</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr">
         <is>
-          <t>eléments de la théorie des probabilités t.1</t>
+          <t>algebre 1 : rappels de cours et exercices avec solutions</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
@@ -47262,10 +47262,10 @@
         </is>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I625" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J625" t="n">
         <v>0</v>
@@ -47280,22 +47280,22 @@
         <v>0</v>
       </c>
       <c r="N625" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="O625" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P625" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>512</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Probabilités et statistiques appliquées</t>
+          <t>Algèbre</t>
         </is>
       </c>
       <c r="S625" t="inlineStr"/>
@@ -47309,19 +47309,19 @@
       <c r="A626" t="inlineStr"/>
       <c r="B626" t="inlineStr">
         <is>
-          <t>مهارات التفكير النقدي : لدى طلاب الجامعات العربية</t>
+          <t>Marketing Management</t>
         </is>
       </c>
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>NAN</t>
+          <t>380/KOL/4</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr">
         <is>
-          <t>مهارات التفكير النقدي : لدى طلاب الجامعات العربية</t>
+          <t>marketing management</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
@@ -47330,13 +47330,13 @@
         </is>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
       <c r="J626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K626" t="n">
         <v>0</v>
@@ -47356,10 +47356,14 @@
       <c r="P626" t="n">
         <v>1</v>
       </c>
-      <c r="Q626" t="inlineStr"/>
+      <c r="Q626" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Commerce / communication</t>
         </is>
       </c>
       <c r="S626" t="inlineStr"/>
@@ -47373,19 +47377,19 @@
       <c r="A627" t="inlineStr"/>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Marketing Management</t>
+          <t>Le MBA visuel : deux années de MBA en un un seul livre dans lequel un dessin vaut mieux que 1000 mot</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
       <c r="D627" t="inlineStr">
         <is>
-          <t>380/KOL/4</t>
+          <t>350 BAR/3</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr">
         <is>
-          <t>marketing management</t>
+          <t>le mba visuel : deux années de mba en un un seul livre dans lequel un dessin vaut mieux que 1000 mot</t>
         </is>
       </c>
       <c r="G627" t="inlineStr">
@@ -47397,10 +47401,10 @@
         <v>0</v>
       </c>
       <c r="I627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K627" t="n">
         <v>0</v>
@@ -47412,22 +47416,22 @@
         <v>0</v>
       </c>
       <c r="N627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P627" t="n">
         <v>1</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>350</t>
         </is>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Commerce / communication</t>
+          <t>Administration publique</t>
         </is>
       </c>
       <c r="S627" t="inlineStr"/>
@@ -47441,19 +47445,19 @@
       <c r="A628" t="inlineStr"/>
       <c r="B628" t="inlineStr">
         <is>
-          <t>ELEMENTS D'ANALYSE NUMERIQUE</t>
+          <t>Algèbre : cours et exercices avec solutions</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>512 DOM</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
       <c r="F628" t="inlineStr">
         <is>
-          <t>elements d'analyse numerique</t>
+          <t>algèbre : cours et exercices avec solutions</t>
         </is>
       </c>
       <c r="G628" t="inlineStr">
@@ -47462,10 +47466,10 @@
         </is>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J628" t="n">
         <v>0</v>
@@ -47480,22 +47484,22 @@
         <v>0</v>
       </c>
       <c r="N628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P628" t="n">
         <v>1</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>512</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Autre (hors sélection)</t>
+          <t>Algèbre</t>
         </is>
       </c>
       <c r="S628" t="inlineStr"/>
@@ -47509,19 +47513,19 @@
       <c r="A629" t="inlineStr"/>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Algebre 1 : rappels de cours et exercices avec solutions</t>
+          <t>Pattern Recognition and Neural Networks</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
       <c r="D629" t="inlineStr">
         <is>
-          <t>512/BEN/6</t>
+          <t>006.4 RIP</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr">
         <is>
-          <t>algebre 1 : rappels de cours et exercices avec solutions</t>
+          <t>pattern recognition and neural networks</t>
         </is>
       </c>
       <c r="G629" t="inlineStr">
@@ -47530,16 +47534,16 @@
         </is>
       </c>
       <c r="H629" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J629" t="n">
         <v>0</v>
       </c>
       <c r="K629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L629" t="n">
         <v>0</v>
@@ -47548,22 +47552,22 @@
         <v>0</v>
       </c>
       <c r="N629" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="O629" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P629" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>006</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Algèbre</t>
+          <t>Intelligence artificielle / traitement automatique</t>
         </is>
       </c>
       <c r="S629" t="inlineStr"/>
@@ -47577,19 +47581,19 @@
       <c r="A630" t="inlineStr"/>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Algèbre : cours et exercices avec solutions</t>
+          <t>Les Mathématiques en licence : cours et exercices résolus, 2e année. Tome1</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
-          <t>512 DOM</t>
+          <t>510AZO</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr">
         <is>
-          <t>algèbre : cours et exercices avec solutions</t>
+          <t>les mathématiques en licence : cours et exercices résolus, 2e année. tome1</t>
         </is>
       </c>
       <c r="G630" t="inlineStr">
@@ -47598,7 +47602,7 @@
         </is>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -47607,7 +47611,7 @@
         <v>0</v>
       </c>
       <c r="K630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L630" t="n">
         <v>0</v>
@@ -47616,22 +47620,22 @@
         <v>0</v>
       </c>
       <c r="N630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P630" t="n">
         <v>1</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>510</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Algèbre</t>
+          <t>Mathématiques générales</t>
         </is>
       </c>
       <c r="S630" t="inlineStr"/>
@@ -47645,19 +47649,19 @@
       <c r="A631" t="inlineStr"/>
       <c r="B631" t="inlineStr">
         <is>
-          <t>400 exercices corrigés d'algèbre avec rappels de cours pour Spé MP-MP*</t>
+          <t>Eléments de la théorie des probabilités T.1</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>512/AAS/1</t>
+          <t>519.2 BOU/16/T1</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr">
         <is>
-          <t>400 exercices corrigés d'algèbre avec rappels de cours pour spé mp-mp*</t>
+          <t>eléments de la théorie des probabilités t.1</t>
         </is>
       </c>
       <c r="G631" t="inlineStr">
@@ -47669,7 +47673,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J631" t="n">
         <v>0</v>
@@ -47681,25 +47685,25 @@
         <v>0</v>
       </c>
       <c r="M631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N631" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P631" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>519</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Algèbre</t>
+          <t>Probabilités et statistiques appliquées</t>
         </is>
       </c>
       <c r="S631" t="inlineStr"/>
@@ -47781,19 +47785,19 @@
       <c r="A633" t="inlineStr"/>
       <c r="B633" t="inlineStr">
         <is>
-          <t>LECTURE NOTES IN ENGLISH FOR COMPUTING</t>
+          <t>Algèbre 1re année</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
         <is>
-          <t>004 BEL/10</t>
+          <t>512.MAR/1</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr">
         <is>
-          <t>lecture notes in english for computing</t>
+          <t>algèbre 1re année</t>
         </is>
       </c>
       <c r="G633" t="inlineStr">
@@ -47802,10 +47806,10 @@
         </is>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J633" t="n">
         <v>0</v>
@@ -47820,22 +47824,22 @@
         <v>0</v>
       </c>
       <c r="N633" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P633" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>512</t>
         </is>
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Informatique générale</t>
+          <t>Algèbre</t>
         </is>
       </c>
       <c r="S633" t="inlineStr"/>
@@ -47849,19 +47853,19 @@
       <c r="A634" t="inlineStr"/>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Cambridge English Skills Real Listening and Speaking 2</t>
+          <t>Programmation Linéaire</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
       <c r="D634" t="inlineStr">
         <is>
-          <t>NAN</t>
+          <t>519.72 BEN/13</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr">
         <is>
-          <t>cambridge english skills real listening and speaking 2</t>
+          <t>programmation linéaire</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
@@ -47876,7 +47880,7 @@
         <v>0</v>
       </c>
       <c r="J634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K634" t="n">
         <v>0</v>
@@ -47885,7 +47889,7 @@
         <v>0</v>
       </c>
       <c r="M634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N634" t="n">
         <v>1</v>
@@ -47896,10 +47900,14 @@
       <c r="P634" t="n">
         <v>1</v>
       </c>
-      <c r="Q634" t="inlineStr"/>
+      <c r="Q634" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Inconnu</t>
+          <t>Probabilités et statistiques appliquées</t>
         </is>
       </c>
       <c r="S634" t="inlineStr"/>
@@ -47913,19 +47921,19 @@
       <c r="A635" t="inlineStr"/>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Pattern Recognition and Neural Networks</t>
+          <t>مهارات التفكير النقدي : لدى طلاب الجامعات العربية</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>006.4 RIP</t>
+          <t>NAN</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr">
         <is>
-          <t>pattern recognition and neural networks</t>
+          <t>مهارات التفكير النقدي : لدى طلاب الجامعات العربية</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
@@ -47934,7 +47942,7 @@
         </is>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -47943,7 +47951,7 @@
         <v>0</v>
       </c>
       <c r="K635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L635" t="n">
         <v>0</v>
@@ -47952,22 +47960,18 @@
         <v>0</v>
       </c>
       <c r="N635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P635" t="n">
         <v>1</v>
       </c>
-      <c r="Q635" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
+      <c r="Q635" t="inlineStr"/>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Intelligence artificielle / traitement automatique</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="S635" t="inlineStr"/>
@@ -47981,19 +47985,19 @@
       <c r="A636" t="inlineStr"/>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Algèbre 1re année</t>
+          <t>Big Data Analytics with Applications in Insider Threat Detection</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
-          <t>512.MAR/1</t>
+          <t>005.8 PAR/1</t>
         </is>
       </c>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr">
         <is>
-          <t>algèbre 1re année</t>
+          <t>big data analytics with applications in insider threat detection</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
@@ -48002,10 +48006,10 @@
         </is>
       </c>
       <c r="H636" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J636" t="n">
         <v>0</v>
@@ -48017,25 +48021,25 @@
         <v>0</v>
       </c>
       <c r="M636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N636" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P636" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>005</t>
         </is>
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Algèbre</t>
+          <t>Programmation / logiciels</t>
         </is>
       </c>
       <c r="S636" t="inlineStr"/>
@@ -48049,19 +48053,19 @@
       <c r="A637" t="inlineStr"/>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Penser comme un millionaire :changer ses habitudes pour réussir et étre heureux</t>
+          <t>Algorithmique : cours et exercices corrigés</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
-          <t>150/GRA/2</t>
+          <t>512/OUR/1</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr">
         <is>
-          <t>penser comme un millionaire :changer ses habitudes pour réussir et étre heureux</t>
+          <t>algorithmique : cours et exercices corrigés</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
@@ -48070,10 +48074,10 @@
         </is>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J637" t="n">
         <v>0</v>
@@ -48088,22 +48092,22 @@
         <v>0</v>
       </c>
       <c r="N637" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P637" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>512</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Psychologie</t>
+          <t>Algèbre</t>
         </is>
       </c>
       <c r="S637" t="inlineStr"/>
@@ -48117,19 +48121,19 @@
       <c r="A638" t="inlineStr"/>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Algorithmique : cours et exercices corrigés</t>
+          <t>400 exercices corrigés d'algèbre avec rappels de cours pour Spé MP-MP*</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>512/OUR/1</t>
+          <t>512/AAS/1</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr">
         <is>
-          <t>algorithmique : cours et exercices corrigés</t>
+          <t>400 exercices corrigés d'algèbre avec rappels de cours pour spé mp-mp*</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
@@ -48138,10 +48142,10 @@
         </is>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J638" t="n">
         <v>0</v>
@@ -48153,16 +48157,16 @@
         <v>0</v>
       </c>
       <c r="M638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N638" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P638" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -48185,19 +48189,19 @@
       <c r="A639" t="inlineStr"/>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Le MBA visuel : deux années de MBA en un un seul livre dans lequel un dessin vaut mieux que 1000 mot</t>
+          <t>Cambridge English Skills Real Listening and Speaking 2</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>350 BAR/3</t>
+          <t>NAN</t>
         </is>
       </c>
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr">
         <is>
-          <t>le mba visuel : deux années de mba en un un seul livre dans lequel un dessin vaut mieux que 1000 mot</t>
+          <t>cambridge english skills real listening and speaking 2</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
@@ -48209,7 +48213,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J639" t="n">
         <v>0</v>
@@ -48221,7 +48225,7 @@
         <v>0</v>
       </c>
       <c r="M639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N639" t="n">
         <v>1</v>
@@ -48232,14 +48236,10 @@
       <c r="P639" t="n">
         <v>1</v>
       </c>
-      <c r="Q639" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
+      <c r="Q639" t="inlineStr"/>
       <c r="R639" t="inlineStr">
         <is>
-          <t>Administration publique</t>
+          <t>Inconnu</t>
         </is>
       </c>
       <c r="S639" t="inlineStr"/>
@@ -48253,19 +48253,19 @@
       <c r="A640" t="inlineStr"/>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Les Mathématiques en licence : cours et exercices résolus, 2e année. Tome1</t>
+          <t>Penser comme un millionaire :changer ses habitudes pour réussir et étre heureux</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>510AZO</t>
+          <t>150/GRA/2</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
       <c r="F640" t="inlineStr">
         <is>
-          <t>les mathématiques en licence : cours et exercices résolus, 2e année. tome1</t>
+          <t>penser comme un millionaire :changer ses habitudes pour réussir et étre heureux</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
@@ -48274,7 +48274,7 @@
         </is>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -48283,7 +48283,7 @@
         <v>0</v>
       </c>
       <c r="K640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L640" t="n">
         <v>0</v>
@@ -48292,22 +48292,22 @@
         <v>0</v>
       </c>
       <c r="N640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P640" t="n">
         <v>1</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>150</t>
         </is>
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Mathématiques générales</t>
+          <t>Psychologie</t>
         </is>
       </c>
       <c r="S640" t="inlineStr"/>
@@ -48321,19 +48321,19 @@
       <c r="A641" t="inlineStr"/>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Programmation Linéaire</t>
+          <t>Anatomie et physiologie humaines</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>519.72 BEN/13</t>
+          <t>611.9/MAR/2</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr">
         <is>
-          <t>programmation linéaire</t>
+          <t>anatomie et physiologie humaines</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
@@ -48348,10 +48348,10 @@
         <v>0</v>
       </c>
       <c r="J641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L641" t="n">
         <v>0</v>
@@ -48370,12 +48370,12 @@
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>611</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Probabilités et statistiques appliquées</t>
+          <t>Anatomie</t>
         </is>
       </c>
       <c r="S641" t="inlineStr"/>
@@ -48389,19 +48389,19 @@
       <c r="A642" t="inlineStr"/>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Ant Colony Optimization</t>
+          <t>ELEMENTS D'ANALYSE NUMERIQUE</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>005.1.16.DOR/1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
       <c r="F642" t="inlineStr">
         <is>
-          <t>ant colony optimization</t>
+          <t>elements d'analyse numerique</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
@@ -48413,13 +48413,13 @@
         <v>0</v>
       </c>
       <c r="I642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J642" t="n">
         <v>0</v>
       </c>
       <c r="K642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L642" t="n">
         <v>0</v>
@@ -48438,12 +48438,12 @@
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Programmation / logiciels</t>
+          <t>Autre (hors sélection)</t>
         </is>
       </c>
       <c r="S642" t="inlineStr"/>
